--- a/Doc/2.UI/業番点検/画面レイアウト_業番点検.xlsx
+++ b/Doc/2.UI/業番点検/画面レイアウト_業番点検.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28770" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28770" windowHeight="12270" tabRatio="706"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー画面" sheetId="1" r:id="rId1"/>
@@ -195,13 +195,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -221,7 +221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="123825" y="361950"/>
-          <a:ext cx="5210175" cy="4429125"/>
+          <a:ext cx="5200650" cy="4429125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
